--- a/ja/releases/nablarch6u3-releasenote.xlsx
+++ b/ja/releases/nablarch6u3-releasenote.xlsx
@@ -4,9 +4,9 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8CA93E-ED87-4567-B9E7-3BA44342F16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF69CFF2-9BAE-4D41-8C9C-BDD9D347CED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1185" windowWidth="26085" windowHeight="14550" tabRatio="678" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3135" yWindow="840" windowWidth="26085" windowHeight="14550" tabRatio="678" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6u3" sheetId="9" r:id="rId1"/>
@@ -445,26 +445,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t xml:space="preserve">nablarch-fw-jaxrsおよびnablarch-jaxrs-adaptorの変更内容を取り込み、マルチパートリクエストに対応しました。
-</t>
-    <rPh sb="43" eb="45">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>nablarch-single-module-archetype 6u3</t>
     <phoneticPr fontId="10"/>
   </si>
@@ -1545,7 +1525,22 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t xml:space="preserve">No.25の対応に伴い、使用不許可APIツールのバージョンを以下に更新しました。
+    <t>Date and Time APIのサポート
+(No.24.OpenAPI対応に伴う変更)</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>マルチパートリクエストのサポート
+(No.24.OpenAPI対応に伴う変更)</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t xml:space="preserve">No.4およびNo.19で対応したnablarch-fw-jaxrsおよびnablarch-jaxrs-adaptorの変更内容を取り込み、マルチパートリクエストに対応しました。
+</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t xml:space="preserve">No.26の対応に伴い、使用不許可APIツールのバージョンを以下に更新しました。
 ・nablarch-unpublished-api-checker 1.0.1
 </t>
     <rPh sb="6" eb="8">
@@ -1557,18 +1552,20 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>Date and Time APIのサポート
-(No.24.OpenAPI対応に伴う変更)</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>マルチパートリクエストのサポート
-(No.24.OpenAPI対応に伴う変更)</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t xml:space="preserve">No.4およびNo.19で対応したnablarch-fw-jaxrsおよびnablarch-jaxrs-adaptorの変更内容を取り込み、マルチパートリクエストに対応しました。
+    <t xml:space="preserve">No.4およびNo.19で対応したマルチパートリクエストのサポートを取り込み、マルチパートリクエストに対応しました。
 </t>
+    <rPh sb="13" eb="15">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>タイオウ</t>
+    </rPh>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -2413,38 +2410,38 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="73">
@@ -3514,64 +3511,64 @@
       <c r="DT3" s="60"/>
     </row>
     <row r="4" spans="1:124" s="2" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="64" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="64" t="s">
+      <c r="G4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="68" t="s">
+      <c r="I4" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="68"/>
-      <c r="K4" s="64" t="s">
+      <c r="J4" s="71"/>
+      <c r="K4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="64" t="s">
+      <c r="L4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="63" t="s">
+      <c r="M4" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="70" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:124" s="2" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
       <c r="I5" s="38" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="64"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="70"/>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:124" ht="21">
@@ -3597,54 +3594,54 @@
       <c r="B7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="64">
         <v>1</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="69" t="s">
-        <v>205</v>
-      </c>
-      <c r="G7" s="71" t="s">
+      <c r="F7" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="G7" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="H7" s="66" t="s">
-        <v>186</v>
-      </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66" t="s">
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="66"/>
+      <c r="L7" s="64"/>
       <c r="M7" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="66" t="s">
+      <c r="N7" s="64" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:124" s="6" customFormat="1" ht="109.5" customHeight="1">
       <c r="A8" s="61"/>
       <c r="B8" s="27"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
       <c r="M8" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="N8" s="67"/>
+        <v>93</v>
+      </c>
+      <c r="N8" s="65"/>
     </row>
     <row r="9" spans="1:124" s="6" customFormat="1" ht="132">
       <c r="A9" s="8"/>
@@ -3660,10 +3657,10 @@
         <v>19</v>
       </c>
       <c r="F9" s="62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G9" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>23</v>
@@ -3674,7 +3671,7 @@
         <v>24</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M9" s="47" t="s">
         <v>21</v>
@@ -3697,10 +3694,10 @@
         <v>19</v>
       </c>
       <c r="F10" s="62" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G10" s="62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H10" s="18" t="s">
         <v>27</v>
@@ -3732,10 +3729,10 @@
         <v>19</v>
       </c>
       <c r="F11" s="62" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G11" s="62" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H11" s="18" t="s">
         <v>23</v>
@@ -3805,7 +3802,7 @@
         <v>36</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>37</v>
@@ -3846,7 +3843,7 @@
         <v>46</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>47</v>
@@ -3881,7 +3878,7 @@
         <v>52</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>53</v>
@@ -3953,7 +3950,7 @@
         <v>64</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H17" s="28" t="s">
         <v>65</v>
@@ -3974,55 +3971,55 @@
     <row r="18" spans="1:14" s="6" customFormat="1" ht="36">
       <c r="A18" s="8"/>
       <c r="B18" s="27"/>
-      <c r="C18" s="66">
+      <c r="C18" s="64">
         <f t="shared" ref="C18:C21" si="2">C17+1</f>
         <v>11</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="66" t="s">
+      <c r="E18" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="66" t="s">
-        <v>195</v>
-      </c>
-      <c r="G18" s="66" t="s">
-        <v>202</v>
-      </c>
-      <c r="H18" s="66" t="s">
+      <c r="F18" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="G18" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="H18" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66" t="s">
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="L18" s="66"/>
+      <c r="L18" s="64"/>
       <c r="M18" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="N18" s="66" t="s">
+      <c r="N18" s="64" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="6" customFormat="1" ht="110.25" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="27"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
       <c r="M19" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="N19" s="67"/>
+      <c r="N19" s="65"/>
     </row>
     <row r="20" spans="1:14" s="6" customFormat="1" ht="36">
       <c r="A20" s="8"/>
@@ -4041,7 +4038,7 @@
         <v>73</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H20" s="18" t="s">
         <v>69</v>
@@ -4078,7 +4075,7 @@
         <v>77</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H21" s="18" t="s">
         <v>78</v>
@@ -4115,10 +4112,10 @@
         <v>81</v>
       </c>
       <c r="G22" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="H22" s="18" t="s">
         <v>82</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>83</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
@@ -4141,19 +4138,19 @@
         <v>15</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="18" t="s">
-        <v>85</v>
-      </c>
       <c r="H23" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
@@ -4162,10 +4159,10 @@
       </c>
       <c r="L23" s="18"/>
       <c r="M23" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="N23" s="18" t="s">
         <v>86</v>
-      </c>
-      <c r="N23" s="18" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="6" customFormat="1" ht="36">
@@ -4176,19 +4173,19 @@
         <v>16</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>68</v>
       </c>
       <c r="F24" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="18" t="s">
-        <v>90</v>
-      </c>
       <c r="H24" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
@@ -4200,7 +4197,7 @@
         <v>54</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="6" customFormat="1" ht="48">
@@ -4211,19 +4208,19 @@
         <v>17</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>68</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
@@ -4235,12 +4232,12 @@
         <v>54</v>
       </c>
       <c r="N25" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="6" customFormat="1" ht="21">
       <c r="A26" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="7"/>
@@ -4258,7 +4255,7 @@
     </row>
     <row r="27" spans="1:14" s="6" customFormat="1" ht="108">
       <c r="A27" s="8"/>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="63" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="18">
@@ -4266,19 +4263,19 @@
         <v>18</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
@@ -4287,7 +4284,7 @@
       </c>
       <c r="L27" s="18"/>
       <c r="M27" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N27" s="18" t="s">
         <v>29</v>
@@ -4295,36 +4292,36 @@
     </row>
     <row r="28" spans="1:14" s="6" customFormat="1" ht="60">
       <c r="A28" s="8"/>
-      <c r="B28" s="72"/>
+      <c r="B28" s="63"/>
       <c r="C28" s="18">
         <f>C27+1</f>
         <v>19</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="40"/>
       <c r="K28" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="L28" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="L28" s="18" t="s">
-        <v>99</v>
-      </c>
       <c r="M28" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N28" s="18" t="s">
         <v>30</v>
@@ -4332,7 +4329,7 @@
     </row>
     <row r="29" spans="1:14" s="6" customFormat="1" ht="21">
       <c r="A29" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="7"/>
@@ -4358,25 +4355,25 @@
         <v>20</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>45</v>
       </c>
       <c r="F30" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="H30" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>103</v>
       </c>
       <c r="I30" s="18" t="s">
         <v>54</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K30" s="18" t="s">
         <v>48</v>
@@ -4385,10 +4382,10 @@
         <v>54</v>
       </c>
       <c r="M30" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="N30" s="18" t="s">
         <v>105</v>
-      </c>
-      <c r="N30" s="18" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="6" customFormat="1" ht="36">
@@ -4405,13 +4402,13 @@
         <v>45</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
@@ -4434,19 +4431,19 @@
         <v>22</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>68</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G32" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H32" s="18" t="s">
         <v>108</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>109</v>
       </c>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
@@ -4458,12 +4455,12 @@
         <v>54</v>
       </c>
       <c r="N32" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="6" customFormat="1" ht="21">
       <c r="A33" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B33" s="41"/>
       <c r="C33" s="7"/>
@@ -4489,42 +4486,42 @@
         <v>23</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F34" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G34" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="H34" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="H34" s="18" t="s">
-        <v>114</v>
-      </c>
       <c r="I34" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K34" s="18" t="s">
         <v>20</v>
       </c>
       <c r="L34" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M34" s="47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N34" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:14" s="6" customFormat="1" ht="21">
       <c r="A35" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="7"/>
@@ -4543,26 +4540,26 @@
     <row r="36" spans="1:14" ht="48">
       <c r="A36" s="42"/>
       <c r="B36" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C36" s="18">
         <f>C34+1</f>
         <v>24</v>
       </c>
       <c r="D36" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="F36" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="G36" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="H36" s="18" t="s">
         <v>121</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>122</v>
       </c>
       <c r="I36" s="18" t="s">
         <v>54</v>
@@ -4577,10 +4574,10 @@
         <v>54</v>
       </c>
       <c r="M36" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="N36" s="52" t="s">
         <v>123</v>
-      </c>
-      <c r="N36" s="52" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="60">
@@ -4591,19 +4588,19 @@
         <v>25</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F37" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="H37" s="18" t="s">
         <v>126</v>
-      </c>
-      <c r="G37" s="62" t="s">
-        <v>204</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="I37" s="18" t="s">
         <v>54</v>
@@ -4618,10 +4615,10 @@
         <v>54</v>
       </c>
       <c r="M37" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N37" s="52" t="s">
         <v>128</v>
-      </c>
-      <c r="N37" s="52" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="156">
@@ -4632,22 +4629,22 @@
         <v>26</v>
       </c>
       <c r="D38" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="F38" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="G38" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="H38" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="H38" s="18" t="s">
+      <c r="I38" s="18" t="s">
         <v>134</v>
-      </c>
-      <c r="I38" s="18" t="s">
-        <v>135</v>
       </c>
       <c r="J38" s="18" t="s">
         <v>54</v>
@@ -4659,10 +4656,10 @@
         <v>54</v>
       </c>
       <c r="M38" s="55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N38" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -4715,6 +4712,31 @@
   </sheetData>
   <autoFilter ref="I5:J5" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <mergeCells count="35">
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="N7:N8"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="I18:I19"/>
@@ -4725,31 +4747,6 @@
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:G19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <conditionalFormatting sqref="G35">
@@ -4863,7 +4860,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4875,7 +4872,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -4886,10 +4883,10 @@
     <row r="4" spans="1:6">
       <c r="A4" s="12"/>
       <c r="B4" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>139</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>140</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -4901,7 +4898,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -4914,7 +4911,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -4971,214 +4968,214 @@
   <sheetData>
     <row r="1" spans="1:4" ht="24.75" customHeight="1">
       <c r="A1" s="50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24.75" customHeight="1">
       <c r="B3" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="13.5" customHeight="1">
       <c r="C4" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" customHeight="1">
       <c r="D5" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="13.5" customHeight="1">
       <c r="D6" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="13.5" customHeight="1">
       <c r="D7" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="13.5" customHeight="1">
       <c r="D8" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24.75" customHeight="1">
       <c r="B10" s="50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5">
       <c r="B11" s="50"/>
       <c r="C11" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1">
       <c r="B12" s="50"/>
       <c r="C12" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1">
       <c r="C13" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1">
       <c r="D14" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1">
       <c r="D15" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" customHeight="1">
       <c r="D16" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="13.5" customHeight="1">
       <c r="C18" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="24.75" customHeight="1">
       <c r="B20" s="50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="13.5" customHeight="1">
       <c r="C21" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="13.5" customHeight="1">
       <c r="D22" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="13.5" customHeight="1">
       <c r="E24" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="13.5" customHeight="1">
       <c r="E25" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="13.5" customHeight="1">
       <c r="E27" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="13.5" customHeight="1">
       <c r="E28" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="13.5" customHeight="1">
       <c r="C31" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="13.5" customHeight="1">
       <c r="D32" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="13.5" customHeight="1">
       <c r="E34" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="3:6" ht="13.5" customHeight="1">
       <c r="D36" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="3:6" ht="13.5" customHeight="1">
       <c r="E37" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="3:6" ht="13.5" customHeight="1">
       <c r="E38" s="49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="3:6" ht="13.5" customHeight="1">
       <c r="D40" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="3:6" ht="13.5" customHeight="1">
       <c r="C43" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="3:6" ht="13.5" customHeight="1">
       <c r="D44" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="3:6" ht="13.5" customHeight="1">
       <c r="E45" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="3:6" ht="13.5" customHeight="1">
       <c r="F46" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="3:6" ht="13.5" customHeight="1">
       <c r="E48" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="5:6" ht="13.5" customHeight="1">
       <c r="F49" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="5:6" ht="13.5" customHeight="1">
       <c r="F50" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="5:6" ht="13.5" customHeight="1">
       <c r="F51" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="5:6" ht="13.5" customHeight="1">
       <c r="F52" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="5:6" ht="13.5" customHeight="1">
       <c r="E54" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="5:6" ht="13.5" customHeight="1">
       <c r="F55" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="5:6" ht="13.5" customHeight="1">
       <c r="E57" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="5:6" ht="13.5" customHeight="1">
       <c r="E58" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
